--- a/CompCars_Original/ResNet/meanStdTotal/Data_Full_XGradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_Mean_Std_Total_23_08_2022.xlsx
+++ b/CompCars_Original/ResNet/meanStdTotal/Data_Full_XGradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_Mean_Std_Total_23_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,685 +436,747 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivations</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsStd</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>RawActivations</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RawActivationsStd</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercSegmentAreas</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>PercSegmentAreasStd</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RawSegmentAreas</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RawSegmentAreasStd</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>totalMean</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>totalStd</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2190896482036098</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.153593561215582</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>5330.160306419668</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3607.343621538946</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.3365718514973398</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.1297501199520598</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>16887.82922073052</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>6510.342018714562</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>24521.994140625</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2303.60595703125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006814136075454977</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006479735358934488</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>166.4015258545224</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>143.2045179296938</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006693558601720179</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.004806098366446045</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>335.85599639991</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>241.1507916347969</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01431627888193684</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.03063921546283914</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>352.1302204773368</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>773.9280175651437</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01923960726569185</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.04443256084634511</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>965.3665341633541</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2229.448173026225</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004798151906854483</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.001703008459613226</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>117.6289576895486</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>41.11467207887565</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004202819515640954</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.00134666389131458</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>210.8806720168004</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>67.57020741060069</v>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005175859307831082</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.001200264265940201</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>127.0324924344407</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>31.41220135843577</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.004407771227443971</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.001016391857606517</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>221.1643291082277</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>50.99847784726388</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006509083619149626</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006845986347010529</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>159.3366774948262</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>165.6464265483455</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.00561351725119662</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.006586595087067833</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>281.6638415960399</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>330.4889950887156</v>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006833450338340424</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.001637277049628458</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>167.7202995550773</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>42.42377993938532</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.005856581263861952</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.00139248484493888</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>293.8598214955374</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>69.86931957965245</v>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.3076903892491646</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.0985938718610205</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>7538.87163459478</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2422.636934990843</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2289109289474905</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.0693500078685135</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>11485.83477086927</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>3479.705994810524</v>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1427741516770318</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.06349432467021725</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>3550.159950287392</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1706.813111815015</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1936832406181643</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.08029188495105828</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>9718.250281257031</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4028.725619304288</v>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002571297135642034</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.003220393433457229</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>62.84267594786843</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>68.1744366748844</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.001816508462775329</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.002136957096059013</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>91.1451286282157</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>107.2239592518568</v>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02343193716800064</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.009227173212649492</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>574.2849520192835</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>227.4312003351667</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.0146677320671856</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.005468790949768196</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>735.968124203105</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>274.4020546955682</v>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002453377598224346</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.004086137297420746</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>59.92983320129159</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>96.80920039960567</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.00183439196152098</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.00285999004872499</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>92.04245106127654</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>143.5028606848263</v>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01848056784645346</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.008055353133656653</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>454.0490926089576</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>201.3718292113154</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01419983133905514</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.005836323086370748</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>712.4907372684318</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>292.843347181738</v>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2279871979531974</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.07289242667510416</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>5594.355211015682</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1840.005476823737</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.1511630354932985</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.04724936578759543</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>7584.756468911723</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>2370.784177758388</v>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.00326391741477115</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.002010635421242549</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>80.76208843381613</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>51.00564274969845</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003833988049159126</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.00225294930019147</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>192.3741843546089</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>113.043984086405</v>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002091554047417567</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.001538766711743276</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>51.94160577183492</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>39.10253343130562</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.003205786059830067</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.002205753945581678</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>160.8535213380335</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>110.6759099735066</v>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002466717654123796</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.007672833550129199</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>5.75823025597745</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>176.4108800992846</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0001659201237684006</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.005096923365876629</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>8.325208130203254</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>255.7432268061979</v>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.00545007333305175</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.04280488753422475</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>128.0882664368944</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1004.60936597675</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.003889687883140958</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.03005831237676658</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>195.1689792244806</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1508.205881816474</v>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.225620932519629e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0.000371251076595234</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.5381731366088923</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>8.634802818769481</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>4.324237171618065e-05</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.0005958630173925129</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>2.169729243231081</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>29.89802276068342</v>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
